--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="975" yWindow="-15240" windowWidth="17250" windowHeight="8865" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,14 +26,14 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <family val="2"/>
       <sz val="8"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
       <color rgb="00FFFFFF"/>
@@ -62,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,42 +432,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20.5546875" customWidth="1" min="1" max="1"/>
-    <col width="22.21875" customWidth="1" min="2" max="2"/>
-    <col width="15.5546875" customWidth="1" min="3" max="3"/>
-    <col width="14.33203125" customWidth="1" min="4" max="4"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Products</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Time of subscription</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Price in shop</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Price of bought</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Profit</t>
         </is>
@@ -475,487 +483,630 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Product 1</t>
+          <t>product 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24/2/2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45628</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Product 2</t>
+          <t>product 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24/2/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Product 3</t>
+          <t>product 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24/2/2026</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45629</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Product 4</t>
+          <t>product 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24/2/2027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Product 5</t>
+          <t>product 5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/2/2028</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45630</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Product 6</t>
+          <t>product 6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24/2/2029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2026</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Product 7</t>
+          <t>product 7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24/2/2030</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45631</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Product 8</t>
+          <t>product 8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24/2/2031</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2027</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Product 9</t>
+          <t>product 9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24/2/2032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45632</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Product 10</t>
+          <t>product 10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24/2/2033</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2028</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Product 11</t>
+          <t>product 11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24/2/2034</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45633</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>43</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Product 12</t>
+          <t>product 12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24/2/2035</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2029</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Product 13</t>
+          <t>product 13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24/2/2036</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45634</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Product 14</t>
+          <t>product 14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24/2/2037</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>55</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Product 15</t>
+          <t>product 15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24/2/2038</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45635</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Product 16</t>
+          <t>product 16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24/2/2039</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2031</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>63</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Product 17</t>
+          <t>product 17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24/2/2040</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6$</t>
-        </is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45636</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>67</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Product 18</t>
+          <t>product 18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24/2/2041</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>6$</t>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2032</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3$</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3$</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>71</v>
+      </c>
+      <c r="F19" t="n">
+        <v>35</v>
+      </c>
+      <c r="G19" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>product 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37</v>
+      </c>
+      <c r="G20" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>product 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13/2/2033</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>39</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>product 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>83</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
